--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Physics</t>
   </si>
@@ -77,10 +77,22 @@
     <t>Make Target Scene</t>
   </si>
   <si>
-    <t>Make them move with a spring constraint when hit</t>
-  </si>
-  <si>
     <t>GPU ACCELERATION</t>
+  </si>
+  <si>
+    <t>Collision Response</t>
+  </si>
+  <si>
+    <t>Display Number of Entities</t>
+  </si>
+  <si>
+    <t>Implement rest states</t>
+  </si>
+  <si>
+    <t>Use lambda to change colour</t>
+  </si>
+  <si>
+    <t>Add spring constraint</t>
   </si>
 </sst>
 </file>
@@ -180,14 +192,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +528,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,58 +545,91 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Physics</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Add spring constraint</t>
+  </si>
+  <si>
+    <t>May need to make Target class that inherits from GameObject with timer and 'hit' bool</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +599,9 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>12</v>
       </c>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Physics</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>May need to make Target class that inherits from GameObject with timer and 'hit' bool</t>
+  </si>
+  <si>
+    <t>Debug draw spring</t>
+  </si>
+  <si>
+    <t>Make the line several lines making up a jagged triagnle spring constraint</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>SOFT BODY</t>
+  </si>
+  <si>
+    <t>Make spring constr generic</t>
+  </si>
+  <si>
+    <t>If necessary</t>
+  </si>
+  <si>
+    <t>Change Performance timers</t>
+  </si>
+  <si>
+    <t>Add in broadphase and narrowphase like in the tutorials</t>
   </si>
 </sst>
 </file>
@@ -111,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +154,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -195,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -206,6 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,28 +610,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>12</v>
@@ -608,34 +639,76 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Physics</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Add in broadphase and narrowphase like in the tutorials</t>
+  </si>
+  <si>
+    <t>COMPOUND SHAPES</t>
+  </si>
+  <si>
+    <t>SATISFACTORY</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -235,8 +247,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +541,8 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,8 +638,8 @@
         <v>15</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,7 +657,7 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -652,7 +665,7 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -709,6 +722,15 @@
         <v>29</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Physics</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>SATISFACTORY</t>
+  </si>
+  <si>
+    <t>When a projectile is fired - increment entity, when an object falls out of octree, decrement</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -247,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -532,7 +536,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -646,7 +650,7 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -657,7 +661,7 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -665,7 +669,7 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -701,8 +705,11 @@
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>6</v>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Physics</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Make spring constr generic</t>
   </si>
   <si>
-    <t>If necessary</t>
-  </si>
-  <si>
     <t>Change Performance timers</t>
   </si>
   <si>
@@ -129,6 +126,24 @@
   </si>
   <si>
     <t>When a projectile is fired - increment entity, when an object falls out of octree, decrement</t>
+  </si>
+  <si>
+    <t>Doesn't have any angular conditions</t>
+  </si>
+  <si>
+    <t>Generate a texturable mesh</t>
+  </si>
+  <si>
+    <t>Don't cull back faces</t>
+  </si>
+  <si>
+    <t>Don't collide with itself</t>
+  </si>
+  <si>
+    <t>Make soft body class</t>
+  </si>
+  <si>
+    <t>Make draggable</t>
   </si>
 </sst>
 </file>
@@ -240,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -253,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +644,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>6</v>
@@ -643,7 +659,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>12</v>
@@ -717,8 +733,8 @@
         <v>27</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>6</v>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,18 +742,58 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Physics</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Make draggable</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Create an outofbound check</t>
+  </si>
+  <si>
+    <t>Rermoves need for expensive floor/ wall collision check</t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +572,10 @@
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -584,8 +594,17 @@
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -602,7 +621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -620,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -631,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -642,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>29</v>
       </c>
@@ -653,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>16</v>
       </c>
@@ -670,7 +689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>21</v>
       </c>
@@ -681,7 +700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -689,7 +708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -700,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
@@ -709,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
@@ -717,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
@@ -728,45 +747,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>6</v>
@@ -774,26 +796,34 @@
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="7" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Physics</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>Rermoves need for expensive floor/ wall collision check</t>
+  </si>
+  <si>
+    <t>Merge projects</t>
+  </si>
+  <si>
+    <t>Get server to generate maze</t>
+  </si>
+  <si>
+    <t>Promote Client to server</t>
+  </si>
+  <si>
+    <t>When a server disconnects, make a client the server</t>
+  </si>
+  <si>
+    <t>Get server to send maze back</t>
+  </si>
+  <si>
+    <t>Get client to print out maze</t>
+  </si>
+  <si>
+    <t>Create server and client classes</t>
+  </si>
+  <si>
+    <t>Tidy up the code a bit</t>
   </si>
 </sst>
 </file>
@@ -264,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,6 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +586,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +597,9 @@
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -620,6 +647,12 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -638,6 +671,12 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
@@ -649,6 +688,15 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
@@ -660,6 +708,12 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
@@ -671,6 +725,12 @@
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
@@ -679,6 +739,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="11" t="s">
         <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Physics</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Tidy up the code a bit</t>
+  </si>
+  <si>
+    <t>Make user able to exit server</t>
+  </si>
+  <si>
+    <t>By hitting 'esc'</t>
+  </si>
+  <si>
+    <t>Get client to receive messages</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,6 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +596,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,8 +721,11 @@
       <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -756,6 +769,15 @@
       </c>
       <c r="H8" s="10" t="s">
         <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -185,7 +185,7 @@
     <t>By hitting 'esc'</t>
   </si>
   <si>
-    <t>Get client to receive messages</t>
+    <t>Change transmit method to stream of booleans instead</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -313,6 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +597,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,8 +725,8 @@
       <c r="L5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>12</v>
+      <c r="M5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -741,8 +742,8 @@
       <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
+      <c r="M6" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Physics</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Change transmit method to stream of booleans instead</t>
+  </si>
+  <si>
+    <t>Allow user input</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -313,7 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +599,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,8 +727,8 @@
       <c r="L5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>32</v>
+      <c r="M5" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,6 +792,12 @@
       </c>
       <c r="H9" s="10" t="s">
         <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -315,7 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,8 +743,8 @@
       <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>12</v>
+      <c r="M6" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Physics</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Allow user input</t>
+  </si>
+  <si>
+    <t>Solve memory issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when adding half a byte</t>
   </si>
 </sst>
 </file>
@@ -598,7 +604,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,8 +801,8 @@
       <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>6</v>
+      <c r="M9" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -805,6 +811,15 @@
       </c>
       <c r="H10" s="10" t="s">
         <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Physics</t>
   </si>
@@ -195,6 +195,27 @@
   </si>
   <si>
     <t xml:space="preserve"> when adding half a byte</t>
+  </si>
+  <si>
+    <t>Display current maze size as well as user input maze size to be requested</t>
+  </si>
+  <si>
+    <t>Transmit start and end position</t>
+  </si>
+  <si>
+    <t>from client to server</t>
+  </si>
+  <si>
+    <t>Accept position &amp; compute route</t>
+  </si>
+  <si>
+    <t>Add options client side for different types of algorithm</t>
+  </si>
+  <si>
+    <t>Send route back to client</t>
+  </si>
+  <si>
+    <t>Client should display route on key press</t>
   </si>
 </sst>
 </file>
@@ -604,7 +625,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="M11" activeCellId="1" sqref="M10 M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,6 +822,9 @@
       <c r="K9" t="s">
         <v>54</v>
       </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
       <c r="M9" s="13" t="s">
         <v>26</v>
       </c>
@@ -818,8 +842,8 @@
       <c r="L10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>6</v>
+      <c r="M10" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -832,6 +856,15 @@
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
@@ -841,12 +874,30 @@
       <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Physics</t>
   </si>
@@ -197,9 +197,6 @@
     <t xml:space="preserve"> when adding half a byte</t>
   </si>
   <si>
-    <t>Display current maze size as well as user input maze size to be requested</t>
-  </si>
-  <si>
     <t>Transmit start and end position</t>
   </si>
   <si>
@@ -216,6 +213,18 @@
   </si>
   <si>
     <t>Client should display route on key press</t>
+  </si>
+  <si>
+    <t>Allow user to resize the dimensions of the maze</t>
+  </si>
+  <si>
+    <t>User move start/ end position</t>
+  </si>
+  <si>
+    <t>Server console output</t>
+  </si>
+  <si>
+    <t>For each different packet</t>
   </si>
 </sst>
 </file>
@@ -625,7 +634,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" activeCellId="1" sqref="M10 M11"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +832,10 @@
         <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -857,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
         <v>58</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>26</v>
@@ -875,13 +884,13 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
         <v>60</v>
       </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>6</v>
+      <c r="M12" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -892,13 +901,13 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
         <v>62</v>
       </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>6</v>
+      <c r="M13" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -911,6 +920,12 @@
       <c r="H14" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
@@ -920,6 +935,15 @@
         <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,8 +923,8 @@
       <c r="K14" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>6</v>
+      <c r="M14" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -943,8 +943,8 @@
       <c r="L15" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>6</v>
+      <c r="M15" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Physics</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>For each different packet</t>
+  </si>
+  <si>
+    <t>Create client avatar</t>
+  </si>
+  <si>
+    <t>Change when new start/end positions sent</t>
+  </si>
+  <si>
+    <t>Send on keypress</t>
   </si>
 </sst>
 </file>
@@ -634,7 +643,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,8 +964,14 @@
       <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
@@ -966,8 +981,17 @@
       <c r="H17" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
@@ -975,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
         <v>36</v>
       </c>
@@ -983,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
         <v>37</v>
       </c>
@@ -991,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
         <v>38</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>39</v>
       </c>
@@ -1007,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F23" s="2" t="s">
         <v>31</v>
       </c>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Physics</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Send on keypress</t>
+  </si>
+  <si>
+    <t>Remove rotating box</t>
+  </si>
+  <si>
+    <t>Clean up code used to handle this</t>
+  </si>
+  <si>
+    <t>Add "CONNECTED" status entry</t>
+  </si>
+  <si>
+    <t>Or "NOT CONNECTED"</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,12 +1010,30 @@
       <c r="H18" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Physics</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Or "NOT CONNECTED"</t>
+  </si>
+  <si>
+    <t>Add keypress to reconnect</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,8 +1002,8 @@
       <c r="L17" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>6</v>
+      <c r="M17" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
@@ -1042,6 +1045,12 @@
         <v>37</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Physics</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>Add keypress to reconnect</t>
+  </si>
+  <si>
+    <t>Allow client to run</t>
+  </si>
+  <si>
+    <t>Increase their avatar's speed</t>
+  </si>
+  <si>
+    <t>Move avatar at server end</t>
+  </si>
+  <si>
+    <t>Display other client's avatars</t>
   </si>
 </sst>
 </file>
@@ -658,7 +670,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,8 +994,8 @@
       <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>6</v>
+      <c r="M16" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
@@ -997,10 +1009,7 @@
         <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>26</v>
@@ -1014,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
@@ -1031,10 +1040,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>6</v>
@@ -1048,7 +1057,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>6</v>
@@ -1061,6 +1073,12 @@
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
@@ -1069,6 +1087,15 @@
       <c r="H22" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F23" s="2" t="s">
@@ -1076,6 +1103,12 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Physics</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>Display other client's avatars</t>
+  </si>
+  <si>
+    <t>When you regenerate the maze…</t>
+  </si>
+  <si>
+    <t>Reset avatar position</t>
+  </si>
+  <si>
+    <t>Server::Instance()-&gt;Update()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS BROKEN </t>
   </si>
 </sst>
 </file>
@@ -667,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,6 +1124,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>Physics</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t xml:space="preserve">IS BROKEN </t>
+  </si>
+  <si>
+    <t>UsePhysics bool</t>
+  </si>
+  <si>
+    <t>Allow client to change whether their position is calculated in the physics engine or not - include in ConnecetedClient struct</t>
+  </si>
+  <si>
+    <t>R BUTTON ??</t>
   </si>
 </sst>
 </file>
@@ -679,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,8 +1097,11 @@
       <c r="K21" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>6</v>
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
@@ -1131,8 +1143,8 @@
       <c r="L24" t="s">
         <v>80</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>6</v>
+      <c r="M24" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
@@ -1142,7 +1154,18 @@
       <c r="L25" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t>Physics</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>R BUTTON ??</t>
+  </si>
+  <si>
+    <t>Move start position with avatar</t>
+  </si>
+  <si>
+    <t>Change end position</t>
+  </si>
+  <si>
+    <t>Without reposistioning avatar</t>
   </si>
 </sst>
 </file>
@@ -688,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1174,26 @@
       <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>Physics</t>
   </si>
@@ -287,10 +287,13 @@
     <t>Move start position with avatar</t>
   </si>
   <si>
-    <t>Change end position</t>
-  </si>
-  <si>
-    <t>Without reposistioning avatar</t>
+    <t>Stop avatar jumping around</t>
+  </si>
+  <si>
+    <t>Change end without reposistioning avatar</t>
+  </si>
+  <si>
+    <t>Change start without moving avatar</t>
   </si>
 </sst>
 </file>
@@ -697,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1200,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>Physics</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Change start without moving avatar</t>
+  </si>
+  <si>
+    <t>Make it look like it is consuming the path</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1188,9 @@
       <c r="K27" t="s">
         <v>86</v>
       </c>
+      <c r="L27" t="s">
+        <v>90</v>
+      </c>
       <c r="M27" s="1" t="s">
         <v>6</v>
       </c>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t>Physics</t>
   </si>
@@ -296,7 +296,13 @@
     <t>Change start without moving avatar</t>
   </si>
   <si>
-    <t>Make it look like it is consuming the path</t>
+    <t>Needs to look smoother</t>
+  </si>
+  <si>
+    <t>When reaches destination</t>
+  </si>
+  <si>
+    <t>Change start to avatar location</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1153,8 @@
       <c r="K23" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>6</v>
+      <c r="M23" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
@@ -1191,8 +1197,8 @@
       <c r="L27" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>6</v>
+      <c r="M27" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.25">
@@ -1202,8 +1208,8 @@
       <c r="L28" t="s">
         <v>88</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>6</v>
+      <c r="M28" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.25">
@@ -1212,6 +1218,17 @@
       </c>
       <c r="M29" s="13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>Physics</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>Change start to avatar location</t>
+  </si>
+  <si>
+    <t>Correct avatar colours</t>
+  </si>
+  <si>
+    <t>Blue for you</t>
+  </si>
+  <si>
+    <t>Increment balls in pool</t>
+  </si>
+  <si>
+    <t>Have a Window::KeyTrigger capture in the scene class</t>
   </si>
 </sst>
 </file>
@@ -709,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,12 +1038,14 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6" t="s">
-        <v>12</v>
+      <c r="F16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="K16" t="s">
         <v>67</v>
@@ -1041,14 +1055,12 @@
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>32</v>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="K17" t="s">
         <v>77</v>
@@ -1059,10 +1071,13 @@
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K18" t="s">
         <v>68</v>
@@ -1076,10 +1091,10 @@
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -1093,7 +1108,7 @@
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>6</v>
@@ -1110,9 +1125,9 @@
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K21" t="s">
@@ -1127,7 +1142,7 @@
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>6</v>
@@ -1143,11 +1158,10 @@
       </c>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K23" t="s">
@@ -1158,6 +1172,13 @@
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="K24" t="s">
         <v>79</v>
       </c>
@@ -1229,6 +1250,17 @@
       </c>
       <c r="M30" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>Physics</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Have a Window::KeyTrigger capture in the scene class</t>
+  </si>
+  <si>
+    <t>String pulling</t>
+  </si>
+  <si>
+    <t>Recalculate routes after toggling</t>
   </si>
 </sst>
 </file>
@@ -721,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,8 +1173,8 @@
       <c r="K23" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>12</v>
+      <c r="M23" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
@@ -1261,6 +1267,17 @@
       </c>
       <c r="M31" s="13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/GameTech/TODO.xlsx
+++ b/GameTech/TODO.xlsx
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,8 +1013,8 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
+      <c r="H14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="K14" t="s">
         <v>64</v>
@@ -1050,8 +1050,8 @@
       <c r="G16" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
+      <c r="H16" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="K16" t="s">
         <v>67</v>
@@ -1116,8 +1116,8 @@
       <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>6</v>
+      <c r="H20" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="K20" t="s">
         <v>72</v>
@@ -1167,8 +1167,8 @@
       <c r="F23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>6</v>
+      <c r="H23" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="K23" t="s">
         <v>78</v>
